--- a/UseCaseScenarij/Scenarij-i-tok_OOAD.xlsx
+++ b/UseCaseScenarij/Scenarij-i-tok_OOAD.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Naziv</t>
   </si>
@@ -79,15 +73,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>T2:</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
     <t>Sistem</t>
   </si>
   <si>
@@ -155,15 +140,6 @@
     <t>19.Preuzimanje karte.</t>
   </si>
   <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Alternativni tok 2:  19</t>
-  </si>
-  <si>
-    <t>Alternativni tok 1: 10</t>
-  </si>
-  <si>
     <t>20.Predavanje kofera.</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>24.Odlazi na let.</t>
   </si>
   <si>
-    <t>Alternativni tok 3: 22</t>
-  </si>
-  <si>
     <t>1.Detektovano je podudaradnje ličnih podataka putnika sa podacima osobe tražene zbog kršenja zakona.</t>
   </si>
   <si>
@@ -191,6 +164,9 @@
     <t>3.Prima se signal o prisustvu sumnjive osobe.</t>
   </si>
   <si>
+    <t>4.Prima se signal o prisustvu sumnjive osobe</t>
+  </si>
+  <si>
     <t>5.Privodi se sumnjivo lice. U slučaju web kupovine karte, obavještava se policija.</t>
   </si>
   <si>
@@ -230,14 +206,23 @@
     <t>4.Putnik se vraća na korak 22 (ili ga zadrži policija).</t>
   </si>
   <si>
-    <t>4.Prima se signal o prisustvu sumnjive osobe.</t>
+    <t>T2: Glavni tok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3: Alternativni tok 1: korak 10 </t>
+  </si>
+  <si>
+    <t>T4: Alternativni tok 2:  korak 19</t>
+  </si>
+  <si>
+    <t>T5: Alternativni tok 3: korak 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,93 +265,85 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -374,58 +351,63 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:B10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" dataDxfId="22"/>
+    <tableColumn id="1" name="Naziv" dataDxfId="23"/>
+    <tableColumn id="2" name="Sistem za rezervaciju i kupovinu avionske karte" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:D35" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A14:D35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A38:D42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A38:D42">
+    <filterColumn colId="3"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="19"/>
-    <tableColumn id="3" name="Column12" dataDxfId="18"/>
-    <tableColumn id="2" name="Column2" dataDxfId="17"/>
-    <tableColumn id="4" name="Column3" dataDxfId="16"/>
+    <tableColumn id="1" name="Putnik" dataDxfId="13"/>
+    <tableColumn id="2" name="Sistem" dataDxfId="12"/>
+    <tableColumn id="3" name="Supervizor" dataDxfId="11"/>
+    <tableColumn id="4" name="Osiguranje" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A39:D44" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A39:D44"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="13"/>
-    <tableColumn id="2" name="Column2" dataDxfId="12"/>
-    <tableColumn id="3" name="Column3" dataDxfId="11"/>
-    <tableColumn id="4" name="Column4" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A46:C52" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A46:C52"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Putnik" dataDxfId="7"/>
+    <tableColumn id="2" name="Sistem" dataDxfId="6"/>
+    <tableColumn id="3" name="Supervizor" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A48:C58" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A48:C58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A56:C60" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A56:C60"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" dataDxfId="5"/>
+    <tableColumn id="1" name="Putnik" dataDxfId="2"/>
+    <tableColumn id="2" name="Sistem" dataDxfId="1"/>
+    <tableColumn id="3" name="Osiguranje" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A62:C75" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A62:C75"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Column1" dataDxfId="2"/>
-    <tableColumn id="2" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" name="Column3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:D34" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A14:D34">
+    <filterColumn colId="1"/>
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Putnik" dataDxfId="19"/>
+    <tableColumn id="3" name="Sistem" dataDxfId="18"/>
+    <tableColumn id="2" name="Supervizor" dataDxfId="17"/>
+    <tableColumn id="4" name="Osiguranje" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,10 +488,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +522,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,391 +721,339 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" hidden="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="270">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75">
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60">
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30">
+      <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    <row r="49" spans="1:3" ht="45">
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="180">
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="105">
+      <c r="C57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="45">
+      <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="59" spans="1:3" ht="45">
+      <c r="C59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="60" spans="1:3" ht="30">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    </row>
+    <row r="62" spans="1:3" ht="45"/>
+    <row r="63" spans="1:3" ht="30"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="5">
     <tablePart r:id="rId2"/>
@@ -1138,24 +1066,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
